--- a/Simulazioni_RL/Risultati/Strategy/performance_pid_test_timesteps_2400_ripetizioni_100.xlsx
+++ b/Simulazioni_RL/Risultati/Strategy/performance_pid_test_timesteps_2400_ripetizioni_100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\simglucose\Simulazioni_RL\Risultati\Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D52D47-7BE7-46AA-973C-1BC501B5D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B6904-01B6-4751-B1E7-E0057AB7023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="1830" windowWidth="22608" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="risultati" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,43 @@
     <sheet name="adult#009" sheetId="3" r:id="rId10"/>
     <sheet name="adult#010" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,13 +828,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.41796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -1316,6 +1365,82 @@
       </c>
       <c r="O11" s="2">
         <v>44624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>15.065500000000004</v>
+      </c>
+      <c r="C13">
+        <f>AVEDEV(C2:C11)</f>
+        <v>2.7328340432358154</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>3.8074166666666662</v>
+      </c>
+      <c r="E13">
+        <f>AVEDEV(E2:E11)</f>
+        <v>1.3164580173883853</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F2:F11)</f>
+        <v>2.0066250000000005</v>
+      </c>
+      <c r="G13">
+        <f>AVEDEV(G2:G11)</f>
+        <v>0.72299071410394133</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(H2:H11)</f>
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="I13">
+        <f>AVEDEV(I2:I11)</f>
+        <v>1.153202503328167</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(J2:J11)</f>
+        <v>75.921458333333334</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(K2:K11)</f>
+        <v>9.4917603127795971</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" cm="1">
+        <f t="array" ref="B17:J17">ROUND(B13:J13,2)</f>
+        <v>15.07</v>
+      </c>
+      <c r="C17">
+        <v>2.73</v>
+      </c>
+      <c r="D17">
+        <v>3.81</v>
+      </c>
+      <c r="E17">
+        <v>1.32</v>
+      </c>
+      <c r="F17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.72</v>
+      </c>
+      <c r="H17">
+        <v>3.2</v>
+      </c>
+      <c r="I17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J17">
+        <v>75.92</v>
+      </c>
+      <c r="K17">
+        <f>ROUND(K13,2)</f>
+        <v>9.49</v>
       </c>
     </row>
   </sheetData>
